--- a/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
+++ b/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19202\Desktop\badgerloop\solar_car_hardware\mppt\Project Outputs for mppt\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B5ACB96-9E46-4172-948E-4D92FBB57829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2529AB02-138E-4E9A-A856-21F19A9DB2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{70CB24EF-95FE-465F-9ABE-0163A17CE624}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{50C1E56D-9D7C-425C-935E-DA28E1F4EDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-mppt" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
     <t>Cap Ceramic 0.1uF 250V X7T 10% SMD 0805 125°C Blister Plastic T/R</t>
   </si>
   <si>
-    <t>C6, C8, C10, C11, C12, C17, C18, C27, C35, C37, C39, C45, C47, C49, C50, C51, C52, C54, C55, C56, C58, C59, C60, C65, C66</t>
+    <t>C6, C8, C10, C11, C12, C17, C18, C27, C35, C37, C39, C45, C47, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C65, C66, C67, C68, C69</t>
   </si>
   <si>
     <t>SMD-0805C</t>
@@ -120,7 +120,7 @@
     <t>CAPAE110103X126M</t>
   </si>
   <si>
-    <t>C20, C26, C53, C57, C61</t>
+    <t>C20, C26</t>
   </si>
   <si>
     <t>B340A-13-F</t>
@@ -288,6 +288,21 @@
     <t>PMR18EZPFV4L00</t>
   </si>
   <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R2, R23, R31, R40, R43, R46</t>
+  </si>
+  <si>
+    <t>SMD-0805-RES</t>
+  </si>
+  <si>
+    <t>ERJ-6GEYJ102V</t>
+  </si>
+  <si>
     <t>100k</t>
   </si>
   <si>
@@ -297,9 +312,6 @@
     <t>R3, R9, R24, R32</t>
   </si>
   <si>
-    <t>SMD-0805-RES</t>
-  </si>
-  <si>
     <t>ERJ-6ENF1003V</t>
   </si>
   <si>
@@ -373,18 +385,6 @@
   </si>
   <si>
     <t>ERJ-6ENF3002V</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>RES SMD 1K OHM 5% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>R40, R43, R46</t>
-  </si>
-  <si>
-    <t>ERJ-6GEYJ102V</t>
   </si>
   <si>
     <t>NCP21XM472J03RA</t>
@@ -865,7 +865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D880E17C-B8F3-437C-933A-8B353D30D7D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B728756-B257-4E25-AD56-D44F3F0EB7F4}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -972,7 +972,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1012,7 +1012,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1312,7 +1312,7 @@
         <v>87</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1352,7 +1352,7 @@
         <v>95</v>
       </c>
       <c r="F24" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1372,7 +1372,7 @@
         <v>99</v>
       </c>
       <c r="F25" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1392,7 +1392,7 @@
         <v>103</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1412,7 +1412,7 @@
         <v>107</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>111</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">

--- a/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
+++ b/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19202\Desktop\badgerloop\solar_car_hardware\mppt\Project Outputs for mppt\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2529AB02-138E-4E9A-A856-21F19A9DB2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B56F5FB-D026-4297-ACE1-2B7EEB38793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{50C1E56D-9D7C-425C-935E-DA28E1F4EDD1}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{F11C0C1D-81F0-4A74-B0E3-1A4B2800B286}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-mppt" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
   <si>
     <t>Comment</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Cap Ceramic 0.1uF 250V X7T 10% SMD 0805 125°C Blister Plastic T/R</t>
   </si>
   <si>
-    <t>C6, C8, C10, C11, C12, C17, C18, C27, C35, C37, C39, C45, C47, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C65, C66, C67, C68, C69</t>
+    <t>C6, C8, C10, C11, C12, C17, C18, C20, C26, C27, C35, C37, C39, C45, C47, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C65, C66, C67, C68, C69</t>
   </si>
   <si>
     <t>SMD-0805C</t>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>CAPAE110103X126M</t>
-  </si>
-  <si>
-    <t>C20, C26</t>
   </si>
   <si>
     <t>B340A-13-F</t>
@@ -865,8 +862,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B728756-B257-4E25-AD56-D44F3F0EB7F4}">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A105DFD-3CC1-48A3-AC74-46CB720F9F6F}">
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,7 +969,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,99 +994,99 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -1097,59 +1094,59 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
@@ -1157,119 +1154,119 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F17" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F19" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
@@ -1277,59 +1274,59 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F22" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1">
         <v>4</v>
@@ -1337,116 +1334,116 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F26" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>115</v>
@@ -1457,99 +1454,99 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F31" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F33" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -1557,19 +1554,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -1577,19 +1574,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -1597,19 +1594,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -1617,41 +1614,21 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="1">
         <v>3</v>
       </c>
     </row>

--- a/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
+++ b/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19202\Desktop\badgerloop\solar_car_hardware\mppt\Project Outputs for mppt\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B56F5FB-D026-4297-ACE1-2B7EEB38793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0F453E-253D-46B7-B459-99D6A2C07C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{F11C0C1D-81F0-4A74-B0E3-1A4B2800B286}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{B586560E-407B-40C8-9FA9-975BA26FE45D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-mppt" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A105DFD-3CC1-48A3-AC74-46CB720F9F6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AD3C7B-2C47-4C67-8F69-34E2AE62F69F}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
+++ b/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19202\Desktop\badgerloop\solar_car_hardware\mppt\Project Outputs for mppt\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19202\Desktop\badgerloop\git_repos\solar_car_hardware\mppt\Project Outputs for mppt\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0F453E-253D-46B7-B459-99D6A2C07C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{842B38E5-7372-4C4E-9BAA-A17CDEC97C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{B586560E-407B-40C8-9FA9-975BA26FE45D}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{F93E6DA5-1C97-4941-9E79-7F25B30BBC1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-mppt" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="200">
   <si>
     <t>Comment</t>
   </si>
@@ -63,7 +64,7 @@
     <t>10 µF ±10% 100V Ceramic Capacitor X6S 1206 (3216 Metric)</t>
   </si>
   <si>
-    <t>C1, C2, C7, C24, C28, C30, C31, C36, C40, C41, C46</t>
+    <t>C1, C2, C7, C16, C24, C28, C30, C31, C36, C40, C41, C46</t>
   </si>
   <si>
     <t>SMD-1206C</t>
@@ -72,16 +73,13 @@
     <t>C3216X6S2A106K160AC</t>
   </si>
   <si>
-    <t>1µF</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 100V X7R 1206</t>
-  </si>
-  <si>
-    <t>C3, C4, C9, C13, C15, C16, C19, C21, C25, C29, C32, C33, C38, C42, C43, C48</t>
-  </si>
-  <si>
-    <t>GMC31X7R105K100NT</t>
+    <t>C1206C105K1RACTU</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor, Multilayer, Ceramic, 100V, 10% +Tol, 10% -Tol, X7R, 15% TC, 1uF, Surface Mount, 1206</t>
+  </si>
+  <si>
+    <t>C3, C4, C9, C11, C13, C15, C21, C25, C29, C32, C33, C38, C42, C43, C48, C70</t>
   </si>
   <si>
     <t>UCY2G101MHD6</t>
@@ -99,7 +97,7 @@
     <t>Cap Ceramic 0.1uF 250V X7T 10% SMD 0805 125°C Blister Plastic T/R</t>
   </si>
   <si>
-    <t>C6, C8, C10, C11, C12, C17, C18, C20, C26, C27, C35, C37, C39, C45, C47, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C65, C66, C67, C68, C69</t>
+    <t>C6, C8, C10, C12, C14, C17, C18, C19, C20, C26, C27, C35, C37, C39, C45, C47, C49, C51, C52, C53, C55, C56, C57, C59, C60, C61, C65, C67, C68, C69, C71, C72, C73, C74, C75, C76, C77, C78, C79, C80, C81, C82, C83, C84, C85, C86</t>
   </si>
   <si>
     <t>SMD-0805C</t>
@@ -114,7 +112,7 @@
     <t>CAP ALUM POLY 100UF 20% 63V SMD</t>
   </si>
   <si>
-    <t>C14, C22, C23</t>
+    <t>C22, C23</t>
   </si>
   <si>
     <t>CAPAE110103X126M</t>
@@ -144,6 +142,42 @@
     <t>DIOM4436X26N</t>
   </si>
   <si>
+    <t>TSP10H200S S1G</t>
+  </si>
+  <si>
+    <t>Rectifier Diode, Schottky, 1 Phase, 1 Element, 10A, 200V V(RRM), Silicon, TO-277A</t>
+  </si>
+  <si>
+    <t>D11, D12, D13</t>
+  </si>
+  <si>
+    <t>150V</t>
+  </si>
+  <si>
+    <t>Zener Diode, 150V V(Z), 6.12%, 1.25W, Silicon, Unidirectional, DO-214AC</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>CAPM3216X18N</t>
+  </si>
+  <si>
+    <t>BZG03C150-HM3-08</t>
+  </si>
+  <si>
+    <t>Diode General Purpose_2</t>
+  </si>
+  <si>
+    <t>DIODE GEN PURP 20V 350MA SOD323</t>
+  </si>
+  <si>
+    <t>D15, D16, D17, D18, D19, D20</t>
+  </si>
+  <si>
+    <t>SODFL250X110-2N</t>
+  </si>
+  <si>
     <t>3568</t>
   </si>
   <si>
@@ -186,6 +220,30 @@
     <t>L2</t>
   </si>
   <si>
+    <t>7443251000</t>
+  </si>
+  <si>
+    <t>General Purpose Inductor, 10uH, 20%, 1 Element, SMD, 4040</t>
+  </si>
+  <si>
+    <t>L5, L6, L7</t>
+  </si>
+  <si>
+    <t>INDP105102X50N</t>
+  </si>
+  <si>
+    <t>LED RED 0603</t>
+  </si>
+  <si>
+    <t>Red 631nm LED Indication - Discrete 2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED 0603 RED</t>
+  </si>
+  <si>
     <t>4-40 Mount Hole</t>
   </si>
   <si>
@@ -228,7 +286,7 @@
     <t>Header, 2-Pin</t>
   </si>
   <si>
-    <t>P6, P10, P11, P12, P13, P14, P15, P16</t>
+    <t>P6, P10, P11, P12, P13, P14</t>
   </si>
   <si>
     <t>Pin Header 1x2 TH Pitch 2.54mm</t>
@@ -252,37 +310,46 @@
     <t>Single N-Channel 150 V 7.5 mOhm 70 nC OptiMOS Power Mosfet - TO-220-3</t>
   </si>
   <si>
-    <t>Q1, Q2, Q4, Q5, Q7, Q8</t>
+    <t>Q1, Q2, Q4, Q5, Q7, Q8, Q10</t>
   </si>
   <si>
     <t>IPP075N15N3 G</t>
   </si>
   <si>
-    <t>N-MOS Enhancement Mode</t>
-  </si>
-  <si>
-    <t>MOSFET N-CH 60V 200MA SOT23-3</t>
-  </si>
-  <si>
-    <t>Q3, Q6, Q9</t>
-  </si>
-  <si>
-    <t>SOT95P240X110-3N</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>RES SMD 0.004 OHM 1% 1W 1206</t>
+    <t>MMBT3906-7-F</t>
+  </si>
+  <si>
+    <t>Small Signal Bipolar Transistor, 0.5A I(C), 45V V(BR)CEO, 1-Element, PNP, Silicon, TO-236AB</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>SOTFL103P240X110-3N</t>
+  </si>
+  <si>
+    <t>MMBT100</t>
+  </si>
+  <si>
+    <t>Small Signal Bipolar Transistor, 0.5A I(C), 45V V(BR)CEO, 1-Element, NPN, Silicon</t>
+  </si>
+  <si>
+    <t>Q6, Q9, Q11, Q12</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>Fixed Resistor, Metal Strip, 2W, 0.01ohm, 1% +/-Tol, 100ppm/Cel, Surface Mount, 2512</t>
   </si>
   <si>
     <t>R1, R22, R30</t>
   </si>
   <si>
-    <t>SMD-1206-RES</t>
-  </si>
-  <si>
-    <t>PMR18EZPFV4L00</t>
+    <t>SMD-2512</t>
+  </si>
+  <si>
+    <t>PMR100HZPFU10L0</t>
   </si>
   <si>
     <t>1k</t>
@@ -291,7 +358,7 @@
     <t>RES SMD 1K OHM 5% 1/8W 0805</t>
   </si>
   <si>
-    <t>R2, R23, R31, R40, R43, R46</t>
+    <t>R2, R13, R20, R23, R31, R35, R40, R43, R46, R49, R64, R71, R72, R73</t>
   </si>
   <si>
     <t>SMD-0805-RES</t>
@@ -306,7 +373,7 @@
     <t>RES SMD 100K OHM 1% 1/8W 0805</t>
   </si>
   <si>
-    <t>R3, R9, R24, R32</t>
+    <t>R3, R10, R16, R24, R29, R32</t>
   </si>
   <si>
     <t>ERJ-6ENF1003V</t>
@@ -318,72 +385,132 @@
     <t>RES SMD 3.3K OHM 1% 1/8W 0805</t>
   </si>
   <si>
-    <t>R4, R10, R25, R33</t>
+    <t>R4, R25, R33</t>
   </si>
   <si>
     <t>ERJ-6ENF3301V</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>RES SMD 20 OHM 5% 1/2W 0805</t>
+  </si>
+  <si>
+    <t>R5, R7, R26, R28, R34, R36</t>
+  </si>
+  <si>
+    <t>ERJ-P06J200V</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 5% 1/2W 0805</t>
+  </si>
+  <si>
+    <t>R6, R9, R11, R12, R21, R27, R37, R38, R41, R44, R47, R63, R70</t>
+  </si>
+  <si>
+    <t>ERJ-P06J103V</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>RES SMD 1M OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF1004V</t>
+  </si>
+  <si>
+    <t>60.4</t>
+  </si>
+  <si>
+    <t>RES SMD 60.4 OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R14, R15</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF60R4V</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
     <t>RES SMD 0.0 OHM JUMPER 1/8W 0805</t>
   </si>
   <si>
-    <t>R5, R6, R7, R17, R18, R19, R26, R27, R28, R34, R35, R36</t>
+    <t>R17, R18, R19, R50, R52, R54, R56, R58, R60</t>
   </si>
   <si>
     <t>ERJ-6GEY0R00V</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 5% 1/8W 0805, RES SMD 10K OHM 5% 1/2W 0805</t>
-  </si>
-  <si>
-    <t>R8, R11, R12, R13, R16, R21, R29, R37, R38, R41, R44</t>
-  </si>
-  <si>
-    <t>ERJ-6GEYJ103V, ERJ-P06J103V</t>
-  </si>
-  <si>
-    <t>60.4</t>
-  </si>
-  <si>
-    <t>RES SMD 60.4 OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>R14, R15</t>
-  </si>
-  <si>
-    <t>ERJ-6ENF60R4V</t>
-  </si>
-  <si>
-    <t>249k</t>
-  </si>
-  <si>
-    <t>RES SMD 249K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>ERJ-6ENF2493V</t>
-  </si>
-  <si>
     <t>30k</t>
   </si>
   <si>
     <t>RES SMD 30K OHM 1% 1/8W 0805</t>
   </si>
   <si>
-    <t>R39, R42, R45</t>
+    <t>R39, R42, R45, R62</t>
   </si>
   <si>
     <t>ERJ-6ENF3002V</t>
   </si>
   <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>RES SMD 330 OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF3300V</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RES SMD 1 OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R51, R53, R55, R57, R59, R61</t>
+  </si>
+  <si>
+    <t>ERJ-6RQF1R0V</t>
+  </si>
+  <si>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>RES SMD 200K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R66, R67, R68, R69</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF2003V</t>
+  </si>
+  <si>
+    <t>OFF-mom push button SPST</t>
+  </si>
+  <si>
+    <t>OFF-mom push button SPST K12SCS1.55NOLFTX</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>K12SCS1.55NOLFTX</t>
+  </si>
+  <si>
     <t>NCP21XM472J03RA</t>
   </si>
   <si>
@@ -399,19 +526,85 @@
     <t>SMD TEST POINT</t>
   </si>
   <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19, TP20, TP21, TP22, TP23, TP24</t>
+    <t>TP1, TP2, TP5, TP6, TP7, TP8, TP9, TP10, TP12, TP13, TP18, TP21, TP24</t>
   </si>
   <si>
     <t>Test Point</t>
   </si>
   <si>
+    <t>MAX5063CASA+</t>
+  </si>
+  <si>
+    <t>Half Bridge Based MOSFET Driver, 2A, BICMOS, PDSO8</t>
+  </si>
+  <si>
+    <t>U1, U8, U9</t>
+  </si>
+  <si>
     <t>MAX5063DASA+</t>
   </si>
   <si>
-    <t>MOSFET DRVR 2A 2-OUT Hi/Lo Side Half Brdg Inv/Non-Inv 8-Pin SOIC EP</t>
-  </si>
-  <si>
-    <t>U1, U8, U9</t>
+    <t>INA281A1QDBVRQ1</t>
+  </si>
+  <si>
+    <t>Operational Amplifier, 1 Func, 500uV Offset-Max, PDSO5</t>
+  </si>
+  <si>
+    <t>U2, U10, U11</t>
+  </si>
+  <si>
+    <t>SOT95P280X145-5N</t>
+  </si>
+  <si>
+    <t>TMUX1204DGSR</t>
+  </si>
+  <si>
+    <t>5-V, 4: 1, 1-channel, general-purpose analog multiplexer 10-VSSOP -40 to 125</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>TSSOP50P490X110-10N</t>
+  </si>
+  <si>
+    <t>NUCLEO-L432KC</t>
+  </si>
+  <si>
+    <t>BOARD NUCLEO STM32F303K8T6</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>ISO1050DWR</t>
+  </si>
+  <si>
+    <t>IC TXRX/ISO HALF 1/1 16SOIC</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>IL 41050TE</t>
+  </si>
+  <si>
+    <t>MAX5033CUSA+</t>
+  </si>
+  <si>
+    <t>500mA, 76V, High-Efficiency, MAXPower Step-Down DC-DC Converter</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>ST715CR</t>
+  </si>
+  <si>
+    <t>High input voltage - 85 mA LDO linear regulator, SOT323-5L, Tape and Reel</t>
+  </si>
+  <si>
+    <t>U7</t>
   </si>
   <si>
     <t>TL072CDR</t>
@@ -420,73 +613,31 @@
     <t>IC OPAMP JFET 3MHZ 8SOIC</t>
   </si>
   <si>
-    <t>U2, U10, U12, U14</t>
+    <t>U16</t>
   </si>
   <si>
     <t>SOP127P600X175-8N</t>
   </si>
   <si>
-    <t>TMUX1204DGSR</t>
-  </si>
-  <si>
-    <t>5-V, 4: 1, 1-channel, general-purpose analog multiplexer 10-VSSOP -40 to 125</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>TSSOP50P490X110-10N</t>
-  </si>
-  <si>
-    <t>NUCLEO-L432KC</t>
-  </si>
-  <si>
-    <t>BOARD NUCLEO STM32F303K8T6</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>IL41050TE</t>
-  </si>
-  <si>
-    <t>Transceiver, Can, 1DRIV/1RCVR, 5V, SOIC-</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>IL 41050TE</t>
-  </si>
-  <si>
-    <t>MAX5033CUSA+</t>
-  </si>
-  <si>
-    <t>500mA, 76V, High-Efficiency, MAXPower Step-Down DC-DC Converter</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>ST715CR</t>
-  </si>
-  <si>
-    <t>High input voltage - 85 mA LDO linear regulator, SOT323-5L, Tape and Reel</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>INA240A3</t>
-  </si>
-  <si>
-    <t>IC AMP CURRENT SENSE 8-TSSOP 100V/V</t>
-  </si>
-  <si>
-    <t>U11, U13, U15</t>
-  </si>
-  <si>
-    <t>SOIC127P600X175-8N</t>
+    <t>SN74AHC1G04DBVT</t>
+  </si>
+  <si>
+    <t>Inverter, AHC/VHC/H/U/V Series, 1-Func, 1-Input, CMOS, PDSO5</t>
+  </si>
+  <si>
+    <t>U17, U20, U23</t>
+  </si>
+  <si>
+    <t>BU4S81G2-TR</t>
+  </si>
+  <si>
+    <t>AND Gate, 4000/14000/40000 Series, 1-Func, 2-Input, CMOS, PDSO5</t>
+  </si>
+  <si>
+    <t>U18, U19, U21, U22, U24, U25, U26</t>
+  </si>
+  <si>
+    <t>BU4S81G2</t>
   </si>
 </sst>
 </file>
@@ -862,8 +1013,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AD3C7B-2C47-4C67-8F69-34E2AE62F69F}">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E970304E-898E-4DE3-9362-FF827713F849}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,7 +1060,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -926,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
         <v>16</v>
@@ -934,19 +1085,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>6</v>
@@ -954,59 +1105,59 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="1">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -1014,19 +1165,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
@@ -1034,42 +1185,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1089,7 +1240,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1103,7 +1254,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>46</v>
@@ -1114,22 +1265,22 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1149,7 +1300,7 @@
         <v>53</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,7 +1314,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>57</v>
@@ -1174,119 +1325,119 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1">
         <v>6</v>
@@ -1294,159 +1445,159 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F24" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F25" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
@@ -1454,42 +1605,42 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F30" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1503,13 +1654,13 @@
         <v>127</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,13 +1674,13 @@
         <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,50 +1694,50 @@
         <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -1594,46 +1745,306 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
+++ b/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19202\Desktop\badgerloop\git_repos\solar_car_hardware\mppt\Project Outputs for mppt\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{842B38E5-7372-4C4E-9BAA-A17CDEC97C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C89E2F1-506E-4039-B7DE-97F5506A2A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{F93E6DA5-1C97-4941-9E79-7F25B30BBC1C}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{7E25BE3D-78B2-4122-A60B-B923D0510803}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-mppt" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
     <t>RES SMD 100K OHM 1% 1/8W 0805</t>
   </si>
   <si>
-    <t>R3, R10, R16, R24, R29, R32</t>
+    <t>R3, R10, R16, R24, R29, R32, R65</t>
   </si>
   <si>
     <t>ERJ-6ENF1003V</t>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E970304E-898E-4DE3-9362-FF827713F849}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3D8988-9576-40B7-B0DF-4961055E1EFA}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1580,7 +1580,7 @@
         <v>112</v>
       </c>
       <c r="F28" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">

--- a/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
+++ b/mppt/Project Outputs for mppt/BOM/Bill of Materials-mppt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19202\Desktop\badgerloop\git_repos\solar_car_hardware\mppt\Project Outputs for mppt\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C89E2F1-506E-4039-B7DE-97F5506A2A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D76E59E-8596-43AB-9B0B-0072BB2240E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{7E25BE3D-78B2-4122-A60B-B923D0510803}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{E8197AA3-3662-47D6-959B-70F2C25222D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-mppt" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
     <t>RES SMD 10K OHM 5% 1/2W 0805</t>
   </si>
   <si>
-    <t>R6, R9, R11, R12, R21, R27, R37, R38, R41, R44, R47, R63, R70</t>
+    <t>R6, R9, R11, R12, R21, R27, R37, R38, R41, R44, R47, R63, R70, R74</t>
   </si>
   <si>
     <t>ERJ-P06J103V</t>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3D8988-9576-40B7-B0DF-4961055E1EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FEE733-1B35-43E0-BA78-F2D4A98B7EE3}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1640,7 +1640,7 @@
         <v>124</v>
       </c>
       <c r="F31" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
